--- a/app/Fichiers Excel/OptionFiliere.xlsx
+++ b/app/Fichiers Excel/OptionFiliere.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sora7\OneDrive\Desktop\Fichiers Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sora7\OneDrive\Desktop\PF SYN\eisgi_app\app\Fichiers Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFD1DF4-34D1-42A6-B5E6-5310FB623789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E1A65B-0515-4475-BCC8-DF41C245DCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E0C123D-E62E-459D-B215-0740368679E0}"/>
   </bookViews>
@@ -518,7 +518,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
